--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7817661155668</v>
+        <v>180.683505429327</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2048938497857</v>
+        <v>247.2191433219734</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3881460859331</v>
+        <v>223.6248952576429</v>
       </c>
       <c r="AD2" t="n">
-        <v>128781.7661155668</v>
+        <v>180683.505429327</v>
       </c>
       <c r="AE2" t="n">
-        <v>176204.8938497858</v>
+        <v>247219.1433219734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544271098710869e-06</v>
+        <v>4.301216529437166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>159388.1460859331</v>
+        <v>223624.8952576429</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.018558557544</v>
+        <v>134.3473520258577</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9545366764158</v>
+        <v>183.8199740285631</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.5020335269914</v>
+        <v>166.2764537002826</v>
       </c>
       <c r="AD3" t="n">
-        <v>103018.558557544</v>
+        <v>134347.3520258577</v>
       </c>
       <c r="AE3" t="n">
-        <v>140954.5366764158</v>
+        <v>183819.9740285631</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107244939831283e-06</v>
+        <v>5.252951740474533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>127502.0335269913</v>
+        <v>166276.4537002826</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.4699061869889</v>
+        <v>132.6281074547104</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.8356021813027</v>
+        <v>181.4676277586031</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.5853271661479</v>
+        <v>164.1486120567881</v>
       </c>
       <c r="AD4" t="n">
-        <v>101469.9061869889</v>
+        <v>132628.1074547104</v>
       </c>
       <c r="AE4" t="n">
-        <v>138835.6021813027</v>
+        <v>181467.6277586031</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.156518864065505e-06</v>
+        <v>5.336251754177417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>125585.3271661479</v>
+        <v>164148.6120567881</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2555586358413</v>
+        <v>144.5273516759723</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.3294959249902</v>
+        <v>197.748698659731</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4096282437775</v>
+        <v>178.8758404017439</v>
       </c>
       <c r="AD2" t="n">
-        <v>114255.5586358413</v>
+        <v>144527.3516759723</v>
       </c>
       <c r="AE2" t="n">
-        <v>156329.4959249902</v>
+        <v>197748.698659731</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.964678687952196e-06</v>
+        <v>5.134203891872391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.065972222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>141409.6282437776</v>
+        <v>178875.8404017439</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.93846042291536</v>
+        <v>126.1249126084748</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.2672340567367</v>
+        <v>172.5696696692798</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.7392734731167</v>
+        <v>156.0998625991444</v>
       </c>
       <c r="AD3" t="n">
-        <v>95938.46042291535</v>
+        <v>126124.9126084748</v>
       </c>
       <c r="AE3" t="n">
-        <v>131267.2340567367</v>
+        <v>172569.6696692798</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.339383514344675e-06</v>
+        <v>5.783114340679401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>118739.2734731167</v>
+        <v>156099.8625991444</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.09138077698195</v>
+        <v>111.3522262691071</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.057537028912</v>
+        <v>152.3570284948423</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0766071791698</v>
+        <v>137.8162875297687</v>
       </c>
       <c r="AD2" t="n">
-        <v>84091.38077698195</v>
+        <v>111352.2262691071</v>
       </c>
       <c r="AE2" t="n">
-        <v>115057.537028912</v>
+        <v>152357.0284948423</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650391404442738e-06</v>
+        <v>6.907326063908215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>104076.6071791698</v>
+        <v>137816.2875297687</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.30968137044059</v>
+        <v>116.714322361337</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.8292019991672</v>
+        <v>159.6936849272117</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.2974325452484</v>
+        <v>144.452743769297</v>
       </c>
       <c r="AD2" t="n">
-        <v>88309.68137044058</v>
+        <v>116714.322361337</v>
       </c>
       <c r="AE2" t="n">
-        <v>120829.2019991672</v>
+        <v>159693.6849272117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567944709651892e-06</v>
+        <v>6.500020393378113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>109297.4325452484</v>
+        <v>144452.743769297</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.47150818706773</v>
+        <v>116.8761491779642</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.0506205889717</v>
+        <v>159.9151035170161</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.4977192556049</v>
+        <v>144.6530304796536</v>
       </c>
       <c r="AD3" t="n">
-        <v>88471.50818706772</v>
+        <v>116876.1491779642</v>
       </c>
       <c r="AE3" t="n">
-        <v>121050.6205889717</v>
+        <v>159915.1035170161</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.566423901541232e-06</v>
+        <v>6.497249811281657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109497.7192556049</v>
+        <v>144653.0304796536</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.0075457004281</v>
+        <v>116.1328047141253</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8380978279715</v>
+        <v>158.898026827549</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2598653335455</v>
+        <v>143.7330221619527</v>
       </c>
       <c r="AD2" t="n">
-        <v>81007.54570042809</v>
+        <v>116132.8047141253</v>
       </c>
       <c r="AE2" t="n">
-        <v>110838.0978279714</v>
+        <v>158898.026827549</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646451765941255e-06</v>
+        <v>7.145870572780539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>100259.8653335455</v>
+        <v>143733.0221619527</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2676992335527</v>
+        <v>147.7949082121516</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.4508395770414</v>
+        <v>202.2195136669497</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.1376366420205</v>
+        <v>182.9199670995035</v>
       </c>
       <c r="AD2" t="n">
-        <v>117267.6992335527</v>
+        <v>147794.9082121516</v>
       </c>
       <c r="AE2" t="n">
-        <v>160450.8395770414</v>
+        <v>202219.5136669497</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.865995293111897e-06</v>
+        <v>4.930891041978639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>145137.6366420205</v>
+        <v>182919.9670995034</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.56346577783465</v>
+        <v>128.0053339018619</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.4906380735128</v>
+        <v>175.1425450412234</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.7504789310996</v>
+        <v>158.4271863566437</v>
       </c>
       <c r="AD3" t="n">
-        <v>97563.46577783464</v>
+        <v>128005.3339018619</v>
       </c>
       <c r="AE3" t="n">
-        <v>133490.6380735128</v>
+        <v>175142.5450412234</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.284762556733717e-06</v>
+        <v>5.651372249267948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>120750.4789310996</v>
+        <v>158427.1863566437</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.67139481897395</v>
+        <v>128.1132629430012</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.6383113490928</v>
+        <v>175.2902183168034</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.884058476519</v>
+        <v>158.5607659020632</v>
       </c>
       <c r="AD4" t="n">
-        <v>97671.39481897395</v>
+        <v>128113.2629430012</v>
       </c>
       <c r="AE4" t="n">
-        <v>133638.3113490927</v>
+        <v>175290.2183168034</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.284642908944111e-06</v>
+        <v>5.651166397494436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>120884.058476519</v>
+        <v>158560.7659020632</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.69174846558583</v>
+        <v>114.0763095426989</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.037766002384</v>
+        <v>156.084239407841</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.63135465061006</v>
+        <v>141.1877786644053</v>
       </c>
       <c r="AD2" t="n">
-        <v>79691.74846558583</v>
+        <v>114076.3095426989</v>
       </c>
       <c r="AE2" t="n">
-        <v>109037.766002384</v>
+        <v>156084.239407841</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567961168932113e-06</v>
+        <v>7.152550380627501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>98631.35465061007</v>
+        <v>141187.7786644053</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.8005239943773</v>
+        <v>135.9721901170649</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.446747466771</v>
+        <v>186.0431491877493</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.8062157787552</v>
+        <v>168.2874521425227</v>
       </c>
       <c r="AD2" t="n">
-        <v>96800.5239943773</v>
+        <v>135972.190117065</v>
       </c>
       <c r="AE2" t="n">
-        <v>132446.747466771</v>
+        <v>186043.1491877493</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.217839144743253e-06</v>
+        <v>5.699032232991433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>119806.2157787552</v>
+        <v>168287.4521425226</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.42146564957527</v>
+        <v>121.7789695364991</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.4551266489964</v>
+        <v>166.6233586287291</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.3864268425345</v>
+        <v>150.7210591386019</v>
       </c>
       <c r="AD3" t="n">
-        <v>92421.46564957527</v>
+        <v>121778.9695364991</v>
       </c>
       <c r="AE3" t="n">
-        <v>126455.1266489964</v>
+        <v>166623.3586287291</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.449605761200488e-06</v>
+        <v>6.10950813259596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>114386.4268425345</v>
+        <v>150721.0591386019</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.6405363442984</v>
+        <v>141.5639622650288</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.0690658902047</v>
+        <v>193.6940585321662</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.7965094263408</v>
+        <v>175.2081694372295</v>
       </c>
       <c r="AD2" t="n">
-        <v>101640.5363442984</v>
+        <v>141563.9622650288</v>
       </c>
       <c r="AE2" t="n">
-        <v>139069.0658902047</v>
+        <v>193694.0585321662</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051120990520745e-06</v>
+        <v>5.320888586010888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>125796.5094263408</v>
+        <v>175208.1694372295</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.96832257863612</v>
+        <v>124.8896463140921</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.9398486587335</v>
+        <v>170.8795238292035</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.5385718745014</v>
+        <v>154.5710219059098</v>
       </c>
       <c r="AD3" t="n">
-        <v>94968.32257863611</v>
+        <v>124889.6463140921</v>
       </c>
       <c r="AE3" t="n">
-        <v>129939.8486587335</v>
+        <v>170879.5238292035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.370712324759919e-06</v>
+        <v>5.878227966462982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117538.5718745014</v>
+        <v>154571.0219059098</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.1525466272584</v>
+        <v>166.5022479226552</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.2392356360207</v>
+        <v>227.8157211684285</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.8964033227432</v>
+        <v>206.0733084815522</v>
       </c>
       <c r="AD2" t="n">
-        <v>125152.5466272584</v>
+        <v>166502.2479226552</v>
       </c>
       <c r="AE2" t="n">
-        <v>171239.2356360207</v>
+        <v>227815.7211684285</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636770779692074e-06</v>
+        <v>4.482335569857617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.743055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>154896.4033227432</v>
+        <v>206073.3084815522</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.4825752043891</v>
+        <v>133.5801920305083</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.2211806067129</v>
+        <v>182.7703118782163</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.8386679313089</v>
+        <v>165.3269698323545</v>
       </c>
       <c r="AD3" t="n">
-        <v>102482.5752043891</v>
+        <v>133580.1920305083</v>
       </c>
       <c r="AE3" t="n">
-        <v>140221.1806067129</v>
+        <v>182770.3118782163</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.112414874689397e-06</v>
+        <v>5.29089900738487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>126838.6679313089</v>
+        <v>165326.9698323545</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.78343723005388</v>
+        <v>130.710461855581</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.528100952666</v>
+        <v>178.8438204493226</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.4980506161733</v>
+        <v>161.7752172345678</v>
       </c>
       <c r="AD4" t="n">
-        <v>99783.43723005388</v>
+        <v>130710.461855581</v>
       </c>
       <c r="AE4" t="n">
-        <v>136528.100952666</v>
+        <v>178843.8204493226</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.216667891356054e-06</v>
+        <v>5.468122226205766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.345486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>123498.0506161733</v>
+        <v>161775.2172345678</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.03134878865829</v>
+        <v>118.7705365260993</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.1848633153774</v>
+        <v>162.5070878612047</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.4282728516317</v>
+        <v>146.9976394759065</v>
       </c>
       <c r="AD2" t="n">
-        <v>90031.34878865829</v>
+        <v>118770.5365260993</v>
       </c>
       <c r="AE2" t="n">
-        <v>123184.8633153774</v>
+        <v>162507.0878612047</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.505625504897077e-06</v>
+        <v>6.32147235634722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111428.2728516317</v>
+        <v>146997.6394759065</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.90484901467754</v>
+        <v>118.6440367521186</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.0117807438409</v>
+        <v>162.3340052896682</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.2717090377996</v>
+        <v>146.8410756620744</v>
       </c>
       <c r="AD3" t="n">
-        <v>89904.84901467754</v>
+        <v>118644.0367521186</v>
       </c>
       <c r="AE3" t="n">
-        <v>123011.7807438409</v>
+        <v>162334.0052896682</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.51909056855357e-06</v>
+        <v>6.345753052491768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111271.7090377996</v>
+        <v>146841.0756620744</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.25104958946176</v>
+        <v>112.9209597418696</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6442470591234</v>
+        <v>154.5034388399112</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5118838310598</v>
+        <v>139.7578474840107</v>
       </c>
       <c r="AD2" t="n">
-        <v>85251.04958946176</v>
+        <v>112920.9597418695</v>
       </c>
       <c r="AE2" t="n">
-        <v>116644.2470591234</v>
+        <v>154503.4388399112</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.644169607980438e-06</v>
+        <v>6.798855656140667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>105511.8838310598</v>
+        <v>139757.8474840107</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.67549395668138</v>
+        <v>109.6613027507307</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1202582168598</v>
+        <v>150.0434323387202</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3242195379513</v>
+        <v>135.7234977436335</v>
       </c>
       <c r="AD2" t="n">
-        <v>82675.49395668138</v>
+        <v>109661.3027507307</v>
       </c>
       <c r="AE2" t="n">
-        <v>113120.2582168598</v>
+        <v>150043.4323387202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646245021294966e-06</v>
+        <v>7.011864391870373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>102324.2195379513</v>
+        <v>135723.4977436335</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.80541416695976</v>
+        <v>120.2430889667776</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7709972477805</v>
+        <v>164.5218990749686</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4356599666249</v>
+        <v>148.8201599352346</v>
       </c>
       <c r="AD2" t="n">
-        <v>86805.41416695976</v>
+        <v>120243.0889667777</v>
       </c>
       <c r="AE2" t="n">
-        <v>118770.9972477805</v>
+        <v>164521.8990749686</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.412400533619734e-06</v>
+        <v>7.038415024861923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.491319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>107435.6599666249</v>
+        <v>148820.1599352346</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.891658072301</v>
+        <v>140.4472210984785</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0444176002808</v>
+        <v>192.1660840009495</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.869652131104</v>
+        <v>173.826022650746</v>
       </c>
       <c r="AD2" t="n">
-        <v>100891.658072301</v>
+        <v>140447.2210984784</v>
       </c>
       <c r="AE2" t="n">
-        <v>138044.4176002808</v>
+        <v>192166.0840009495</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.0628201563172e-06</v>
+        <v>5.381254193206701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.979166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>124869.652131104</v>
+        <v>173826.022650746</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.58620049479713</v>
+        <v>123.2316270593383</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.048768248703</v>
+        <v>168.6109487382035</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8279735246556</v>
+        <v>152.518956437629</v>
       </c>
       <c r="AD3" t="n">
-        <v>93586.20049479713</v>
+        <v>123231.6270593383</v>
       </c>
       <c r="AE3" t="n">
-        <v>128048.768248703</v>
+        <v>168610.9487382035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417212929693399e-06</v>
+        <v>6.003908316022039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>115827.9735246556</v>
+        <v>152518.956437629</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8512198665467</v>
+        <v>161.7122547556162</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.353970600874</v>
+        <v>221.2618411977047</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.5728197225277</v>
+        <v>200.1449216168038</v>
       </c>
       <c r="AD2" t="n">
-        <v>120851.2198665467</v>
+        <v>161712.2547556162</v>
       </c>
       <c r="AE2" t="n">
-        <v>165353.970600874</v>
+        <v>221261.8411977047</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759481671235332e-06</v>
+        <v>4.718406134564576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>149572.8197225277</v>
+        <v>200144.9216168038</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.03329019628514</v>
+        <v>129.7217591675108</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.5017166869126</v>
+        <v>177.4910338130215</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.5696230242038</v>
+        <v>160.5515386561869</v>
       </c>
       <c r="AD3" t="n">
-        <v>99033.29019628513</v>
+        <v>129721.7591675108</v>
       </c>
       <c r="AE3" t="n">
-        <v>135501.7166869126</v>
+        <v>177491.0338130215</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.226745708277648e-06</v>
+        <v>5.517375564883307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122569.6230242038</v>
+        <v>160551.5386561869</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.64569781043853</v>
+        <v>129.3341667816642</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.9713956852283</v>
+        <v>176.9607128113372</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.0899151146098</v>
+        <v>160.071830746593</v>
       </c>
       <c r="AD4" t="n">
-        <v>98645.69781043853</v>
+        <v>129334.1667816642</v>
       </c>
       <c r="AE4" t="n">
-        <v>134971.3956852283</v>
+        <v>176960.7128113372</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.255665024948778e-06</v>
+        <v>5.566824373553013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>122089.9151146098</v>
+        <v>160071.830746593</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.54910351117849</v>
+        <v>134.1534049903426</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9980105191126</v>
+        <v>183.5546071382322</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7820600415384</v>
+        <v>166.03641305352</v>
       </c>
       <c r="AD2" t="n">
-        <v>93549.10351117849</v>
+        <v>134153.4049903426</v>
       </c>
       <c r="AE2" t="n">
-        <v>127998.0105191126</v>
+        <v>183554.6071382322</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.061630201821584e-06</v>
+        <v>6.562483680171007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>115782.0600415384</v>
+        <v>166036.41305352</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.84946465628312</v>
+        <v>114.8989452355004</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.8312690706431</v>
+        <v>157.2098058548568</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4901795313055</v>
+        <v>142.2059226294608</v>
       </c>
       <c r="AD2" t="n">
-        <v>86849.46465628312</v>
+        <v>114898.9452355004</v>
       </c>
       <c r="AE2" t="n">
-        <v>118831.2690706431</v>
+        <v>157209.8058548568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606886376189287e-06</v>
+        <v>6.645444809914604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>107490.1795313055</v>
+        <v>142205.9226294608</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.07507775754544</v>
+        <v>122.1311191342316</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3494275704518</v>
+        <v>167.1051852440902</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1953769392057</v>
+        <v>151.156900898041</v>
       </c>
       <c r="AD2" t="n">
-        <v>93075.07775754544</v>
+        <v>122131.1191342316</v>
       </c>
       <c r="AE2" t="n">
-        <v>127349.4275704518</v>
+        <v>167105.1852440902</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373947794809603e-06</v>
+        <v>6.027311510518543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>115195.3769392057</v>
+        <v>151156.900898041</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.27125801160865</v>
+        <v>120.3272993882948</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.8813618151516</v>
+        <v>164.6371194887899</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.9628599156385</v>
+        <v>148.9243838744737</v>
       </c>
       <c r="AD3" t="n">
-        <v>91271.25801160865</v>
+        <v>120327.2993882948</v>
       </c>
       <c r="AE3" t="n">
-        <v>124881.3618151516</v>
+        <v>164637.1194887899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476532430608337e-06</v>
+        <v>6.210571475922646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>112962.8599156385</v>
+        <v>148924.3838744737</v>
       </c>
     </row>
   </sheetData>
